--- a/Code/Results/Cases/Case_2_103/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_103/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.792895131551688</v>
+        <v>1.99233694257714</v>
       </c>
       <c r="C2">
-        <v>1.39663393369193</v>
+        <v>0.4809582057064858</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2150769661361593</v>
+        <v>0.2795298445871666</v>
       </c>
       <c r="F2">
-        <v>3.608700645197018</v>
+        <v>3.228908059506921</v>
       </c>
       <c r="G2">
-        <v>0.0007702628024908176</v>
+        <v>0.002478193465876712</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.17250946984867</v>
+        <v>0.1368315091867061</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7962517789934509</v>
+        <v>1.427685832647192</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.122902548581976</v>
+        <v>1.829878811781839</v>
       </c>
       <c r="C3">
-        <v>1.197224792946827</v>
+        <v>0.4314638139891258</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1892218120279097</v>
+        <v>0.275144287329077</v>
       </c>
       <c r="F3">
-        <v>3.199699464507574</v>
+        <v>3.154345204806646</v>
       </c>
       <c r="G3">
-        <v>0.000781453015714699</v>
+        <v>0.002484719659774736</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1533471862723914</v>
+        <v>0.1332497966659147</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8386914495236582</v>
+        <v>1.443477760151858</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.72127154270521</v>
+        <v>1.731337945964469</v>
       </c>
       <c r="C4">
-        <v>1.07770250117153</v>
+        <v>0.4013202195111489</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1735768888816835</v>
+        <v>0.2725784231280883</v>
       </c>
       <c r="F4">
-        <v>2.958058590551957</v>
+        <v>3.110727570793983</v>
       </c>
       <c r="G4">
-        <v>0.000788455645006788</v>
+        <v>0.002488930196346592</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1421770273048324</v>
+        <v>0.1311567561595908</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8669629517339388</v>
+        <v>1.453797225831146</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.559685493975394</v>
+        <v>1.691480612036287</v>
       </c>
       <c r="C5">
-        <v>1.029613074995041</v>
+        <v>0.3890966046190556</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1672521718683697</v>
+        <v>0.2715647836264239</v>
       </c>
       <c r="F5">
-        <v>2.861680557970402</v>
+        <v>3.093492909977272</v>
       </c>
       <c r="G5">
-        <v>0.0007913458928390096</v>
+        <v>0.002490697376749798</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1377560132047009</v>
+        <v>0.1303301818044886</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8789982891902852</v>
+        <v>1.458158260191652</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.532969967312226</v>
+        <v>1.684880233897331</v>
       </c>
       <c r="C6">
-        <v>1.021661967521311</v>
+        <v>0.3870704645300407</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1662048247799177</v>
+        <v>0.2713984024914069</v>
       </c>
       <c r="F6">
-        <v>2.845795476116933</v>
+        <v>3.090663589408479</v>
       </c>
       <c r="G6">
-        <v>0.0007918281227080379</v>
+        <v>0.002490993922837947</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1370293034479175</v>
+        <v>0.1301945119387398</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8810266793481958</v>
+        <v>1.458891787618107</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.719084365752224</v>
+        <v>1.730799212667876</v>
       </c>
       <c r="C7">
-        <v>1.077051596819842</v>
+        <v>0.4011551263416777</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1734913951347536</v>
+        <v>0.2725646232931567</v>
       </c>
       <c r="F7">
-        <v>2.956750694192181</v>
+        <v>3.110492957856138</v>
       </c>
       <c r="G7">
-        <v>0.0007884944713630747</v>
+        <v>0.002488953820908877</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1421168972432127</v>
+        <v>0.131145502410476</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8671232336050636</v>
+        <v>1.45385541078133</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.559622892419554</v>
+        <v>1.936067247902145</v>
       </c>
       <c r="C8">
-        <v>1.327198118366653</v>
+        <v>0.4638403694764293</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2061097464129702</v>
+        <v>0.2779914051301233</v>
       </c>
       <c r="F8">
-        <v>3.465520891644644</v>
+        <v>3.202746932335089</v>
       </c>
       <c r="G8">
-        <v>0.0007740960517410238</v>
+        <v>0.002480401596202137</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.165766657299713</v>
+        <v>0.1355743003679422</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8103986914341093</v>
+        <v>1.433000992037719</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.304489503692139</v>
+        <v>2.348448614481356</v>
       </c>
       <c r="C9">
-        <v>1.846950283484944</v>
+        <v>0.58880545503348</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2722734382263639</v>
+        <v>0.2896382577048939</v>
       </c>
       <c r="F9">
-        <v>4.55372273757493</v>
+        <v>3.401040476099126</v>
       </c>
       <c r="G9">
-        <v>0.0007467261494842252</v>
+        <v>0.002465235710152954</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2178534048936314</v>
+        <v>0.1451171817035544</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7189145695275698</v>
+        <v>1.3970915545381</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.677048073090134</v>
+        <v>2.657823980458943</v>
       </c>
       <c r="C10">
-        <v>2.256698586626328</v>
+        <v>0.6819905964242707</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.322832646668104</v>
+        <v>0.2988068812012514</v>
       </c>
       <c r="F10">
-        <v>5.433438626451107</v>
+        <v>3.557639581569589</v>
       </c>
       <c r="G10">
-        <v>0.0007268488810443025</v>
+        <v>0.002455058982524155</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2612327269301602</v>
+        <v>0.1526743419383365</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6673609320118317</v>
+        <v>1.373805439223304</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.32999673032748</v>
+        <v>2.800044957569412</v>
       </c>
       <c r="C11">
-        <v>2.451990771463443</v>
+        <v>0.7247103127510854</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.346422749527882</v>
+        <v>0.3031106958976508</v>
       </c>
       <c r="F11">
-        <v>5.858032013796333</v>
+        <v>3.631320891495307</v>
       </c>
       <c r="G11">
-        <v>0.0007177741638411901</v>
+        <v>0.002450636257392835</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2825359247916879</v>
+        <v>0.1562359427672391</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6483269378479264</v>
+        <v>1.363896867903406</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.582280368082422</v>
+        <v>2.854120536436483</v>
       </c>
       <c r="C12">
-        <v>2.527518114827274</v>
+        <v>0.740936749683442</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3554574834965223</v>
+        <v>0.3047595318800447</v>
       </c>
       <c r="F12">
-        <v>6.023047142607737</v>
+        <v>3.65957897659888</v>
       </c>
       <c r="G12">
-        <v>0.0007143246160802171</v>
+        <v>0.002448991000044658</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2908767370138747</v>
+        <v>0.1576028386695754</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6418617116868717</v>
+        <v>1.360244246768701</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.527706377557706</v>
+        <v>2.842464528390167</v>
       </c>
       <c r="C13">
-        <v>2.511176557760052</v>
+        <v>0.7374398656335757</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3535068693262176</v>
+        <v>0.30440357787122</v>
       </c>
       <c r="F13">
-        <v>5.987306958614823</v>
+        <v>3.653477149970826</v>
       </c>
       <c r="G13">
-        <v>0.0007150682764785203</v>
+        <v>0.002449344025288718</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.289067344619113</v>
+        <v>0.1573076376522522</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6432191396613547</v>
+        <v>1.361026458914779</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.350645594543039</v>
+        <v>2.804489351797997</v>
       </c>
       <c r="C14">
-        <v>2.458170986091261</v>
+        <v>0.7260442693781783</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3471638976982447</v>
+        <v>0.3032459645833967</v>
       </c>
       <c r="F14">
-        <v>5.871518465822987</v>
+        <v>3.633638524835476</v>
       </c>
       <c r="G14">
-        <v>0.0007174906856920044</v>
+        <v>0.002450500310216704</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.283216330877849</v>
+        <v>0.1563480311959182</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.647779464163861</v>
+        <v>1.363594363135704</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.242875740744921</v>
+        <v>2.781257239095851</v>
       </c>
       <c r="C15">
-        <v>2.425918386782257</v>
+        <v>0.7190706335633195</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3432924356299623</v>
+        <v>0.3025393758466137</v>
       </c>
       <c r="F15">
-        <v>5.801169513406222</v>
+        <v>3.621533386100424</v>
       </c>
       <c r="G15">
-        <v>0.0007189724881545299</v>
+        <v>0.002451212408538419</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2796696629393836</v>
+        <v>0.1557626257841775</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6506730557947265</v>
+        <v>1.365180275310415</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.635025576715122</v>
+        <v>2.648559896939332</v>
       </c>
       <c r="C16">
-        <v>2.244138681721324</v>
+        <v>0.6792055637012595</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3213042248349112</v>
+        <v>0.2985282883896048</v>
       </c>
       <c r="F16">
-        <v>5.406240053404218</v>
+        <v>3.552873946910154</v>
       </c>
       <c r="G16">
-        <v>0.0007274405945181642</v>
+        <v>0.002455352161104753</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2598759857859392</v>
+        <v>0.1524441076128653</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6687024287101337</v>
+        <v>1.374466855176962</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.270043907589525</v>
+        <v>2.567538907740015</v>
       </c>
       <c r="C17">
-        <v>2.135093106088902</v>
+        <v>0.6548354285528148</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.30797741353161</v>
+        <v>0.2961016376699135</v>
       </c>
       <c r="F17">
-        <v>5.170685179429512</v>
+        <v>3.511383123767814</v>
       </c>
       <c r="G17">
-        <v>0.0007326216608576352</v>
+        <v>0.002457944573806991</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2481664687642109</v>
+        <v>0.150440291205868</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6809641581451018</v>
+        <v>1.380339955996789</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.062740354213247</v>
+        <v>2.521077139257045</v>
       </c>
       <c r="C18">
-        <v>2.073189507735606</v>
+        <v>0.6408492440175451</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3003665989066633</v>
+        <v>0.2947184098172997</v>
       </c>
       <c r="F18">
-        <v>5.037446984128081</v>
+        <v>3.487748385489624</v>
       </c>
       <c r="G18">
-        <v>0.0007355992131810706</v>
+        <v>0.002459455129751117</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2415758341209653</v>
+        <v>0.149299378852362</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6884250833198422</v>
+        <v>1.383782358831823</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.992976526917289</v>
+        <v>2.505369734598844</v>
       </c>
       <c r="C19">
-        <v>2.052362198486549</v>
+        <v>0.6361190029011823</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2977985905572638</v>
+        <v>0.2942522239522276</v>
       </c>
       <c r="F19">
-        <v>4.99270094447732</v>
+        <v>3.479785361646549</v>
       </c>
       <c r="G19">
-        <v>0.0007366071710056786</v>
+        <v>0.002459969927957265</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2393678446452014</v>
+        <v>0.1489150711666838</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6910184253102472</v>
+        <v>1.384958915595163</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.308619147746754</v>
+        <v>2.576149263203035</v>
       </c>
       <c r="C20">
-        <v>2.146614735079936</v>
+        <v>0.6574264611274998</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.309390331698097</v>
+        <v>0.2963586636103415</v>
       </c>
       <c r="F20">
-        <v>5.195523087854525</v>
+        <v>3.515776083890671</v>
       </c>
       <c r="G20">
-        <v>0.0007320704384109499</v>
+        <v>0.002457666593593692</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2493977079547705</v>
+        <v>0.1506523944275955</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6796159098658592</v>
+        <v>1.379708086268657</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.402507976108438</v>
+        <v>2.815637572992784</v>
       </c>
       <c r="C21">
-        <v>2.473694617608601</v>
+        <v>0.7293900747653197</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.349024073724685</v>
+        <v>0.3035854663234048</v>
       </c>
       <c r="F21">
-        <v>5.905407058266661</v>
+        <v>3.639455890792817</v>
       </c>
       <c r="G21">
-        <v>0.0007167795985458178</v>
+        <v>0.00245015988138511</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2849270528526802</v>
+        <v>0.1566293939156083</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6464188680972995</v>
+        <v>1.36283739688399</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.147295625541119</v>
+        <v>2.973439848752264</v>
       </c>
       <c r="C22">
-        <v>2.696822166745676</v>
+        <v>0.7767114245382345</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3755298254918813</v>
+        <v>0.3084197638287165</v>
       </c>
       <c r="F22">
-        <v>6.394465119252544</v>
+        <v>3.722368654240626</v>
       </c>
       <c r="G22">
-        <v>0.0007067042340995755</v>
+        <v>0.002445425861599523</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3097733093902093</v>
+        <v>0.160641949352879</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6291178952097738</v>
+        <v>1.352392155261782</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.746700433379488</v>
+        <v>2.889098373414811</v>
       </c>
       <c r="C23">
-        <v>2.576763642454182</v>
+        <v>0.7514279998820257</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3613216591329831</v>
+        <v>0.3058294506111991</v>
       </c>
       <c r="F23">
-        <v>6.130870021677566</v>
+        <v>3.677924411094551</v>
       </c>
       <c r="G23">
-        <v>0.0007120924173302917</v>
+        <v>0.002447936818192274</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2963449890380474</v>
+        <v>0.1584905208915615</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6379079958892504</v>
+        <v>1.35791346419866</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.291171470404834</v>
+        <v>2.572256153549688</v>
       </c>
       <c r="C24">
-        <v>2.141403373148421</v>
+        <v>0.6562549790463663</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3087513939323827</v>
+        <v>0.296242425157125</v>
       </c>
       <c r="F24">
-        <v>5.184287114816556</v>
+        <v>3.513789345220715</v>
       </c>
       <c r="G24">
-        <v>0.000732319648889038</v>
+        <v>0.00245779220568676</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.24884062801884</v>
+        <v>0.1505564679903273</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.680224178998273</v>
+        <v>1.379993549459364</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.819151734845548</v>
+        <v>2.235793697374675</v>
       </c>
       <c r="C25">
-        <v>1.702276359684788</v>
+        <v>0.5547674565809757</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2540816405795852</v>
+        <v>0.286380001225794</v>
       </c>
       <c r="F25">
-        <v>4.247302339519536</v>
+        <v>3.34550353496536</v>
       </c>
       <c r="G25">
-        <v>0.0007540655441731844</v>
+        <v>0.002469167981714375</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2029993927199172</v>
+        <v>0.142441374628369</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7412118828875691</v>
+        <v>1.406266399016509</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_103/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_103/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.99233694257714</v>
+        <v>4.792895131551745</v>
       </c>
       <c r="C2">
-        <v>0.4809582057064858</v>
+        <v>1.396633933691817</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2795298445871666</v>
+        <v>0.2150769661361593</v>
       </c>
       <c r="F2">
-        <v>3.228908059506921</v>
+        <v>3.608700645197047</v>
       </c>
       <c r="G2">
-        <v>0.002478193465876712</v>
+        <v>0.0007702628024906446</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1368315091867061</v>
+        <v>0.1725094698486558</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.427685832647192</v>
+        <v>0.7962517789934935</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.829878811781839</v>
+        <v>4.122902548582204</v>
       </c>
       <c r="C3">
-        <v>0.4314638139891258</v>
+        <v>1.197224792946542</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.275144287329077</v>
+        <v>0.1892218120279097</v>
       </c>
       <c r="F3">
-        <v>3.154345204806646</v>
+        <v>3.199699464507574</v>
       </c>
       <c r="G3">
-        <v>0.002484719659774736</v>
+        <v>0.000781453015828826</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1332497966659147</v>
+        <v>0.1533471862724198</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.443477760151858</v>
+        <v>0.8386914495236866</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.731337945964469</v>
+        <v>3.72127154270521</v>
       </c>
       <c r="C4">
-        <v>0.4013202195111489</v>
+        <v>1.077702501171586</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2725784231280883</v>
+        <v>0.1735768888816835</v>
       </c>
       <c r="F4">
-        <v>3.110727570793983</v>
+        <v>2.958058590551957</v>
       </c>
       <c r="G4">
-        <v>0.002488930196346592</v>
+        <v>0.000788455644952446</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1311567561595908</v>
+        <v>0.1421770273047684</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.453797225831146</v>
+        <v>0.8669629517339388</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.691480612036287</v>
+        <v>3.559685493975337</v>
       </c>
       <c r="C5">
-        <v>0.3890966046190556</v>
+        <v>1.029613074994757</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2715647836264239</v>
+        <v>0.1672521718683484</v>
       </c>
       <c r="F5">
-        <v>3.093492909977272</v>
+        <v>2.861680557970402</v>
       </c>
       <c r="G5">
-        <v>0.002490697376749798</v>
+        <v>0.0007913458927794049</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1303301818044886</v>
+        <v>0.1377560132046867</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.458158260191652</v>
+        <v>0.878998289190271</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.684880233897331</v>
+        <v>3.53296996731234</v>
       </c>
       <c r="C6">
-        <v>0.3870704645300407</v>
+        <v>1.021661967521482</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2713984024914069</v>
+        <v>0.1662048247798751</v>
       </c>
       <c r="F6">
-        <v>3.090663589408479</v>
+        <v>2.845795476116905</v>
       </c>
       <c r="G6">
-        <v>0.002490993922837947</v>
+        <v>0.0007918281227662096</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1301945119387398</v>
+        <v>0.1370293034477967</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.458891787618107</v>
+        <v>0.8810266793482029</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.730799212667876</v>
+        <v>3.719084365752224</v>
       </c>
       <c r="C7">
-        <v>0.4011551263416777</v>
+        <v>1.077051596819842</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2725646232931567</v>
+        <v>0.1734913951347679</v>
       </c>
       <c r="F7">
-        <v>3.110492957856138</v>
+        <v>2.956750694192209</v>
       </c>
       <c r="G7">
-        <v>0.002488953820908877</v>
+        <v>0.0007884944712499271</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.131145502410476</v>
+        <v>0.1421168972431417</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.45385541078133</v>
+        <v>0.8671232336051062</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.936067247902145</v>
+        <v>4.559622892419554</v>
       </c>
       <c r="C8">
-        <v>0.4638403694764293</v>
+        <v>1.327198118366425</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2779914051301233</v>
+        <v>0.2061097464129276</v>
       </c>
       <c r="F8">
-        <v>3.202746932335089</v>
+        <v>3.465520891644644</v>
       </c>
       <c r="G8">
-        <v>0.002480401596202137</v>
+        <v>0.0007740960517396916</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1355743003679422</v>
+        <v>0.1657666572996064</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.433000992037719</v>
+        <v>0.8103986914340879</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.348448614481356</v>
+        <v>6.304489503691684</v>
       </c>
       <c r="C9">
-        <v>0.58880545503348</v>
+        <v>1.846950283484773</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2896382577048939</v>
+        <v>0.2722734382263283</v>
       </c>
       <c r="F9">
-        <v>3.401040476099126</v>
+        <v>4.55372273757493</v>
       </c>
       <c r="G9">
-        <v>0.002465235710152954</v>
+        <v>0.0007467261496204524</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1451171817035544</v>
+        <v>0.2178534048936029</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.3970915545381</v>
+        <v>0.7189145695276693</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.657823980458943</v>
+        <v>7.677048073089964</v>
       </c>
       <c r="C10">
-        <v>0.6819905964242707</v>
+        <v>2.256698586626555</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2988068812012514</v>
+        <v>0.3228326466680542</v>
       </c>
       <c r="F10">
-        <v>3.557639581569589</v>
+        <v>5.433438626451078</v>
       </c>
       <c r="G10">
-        <v>0.002455058982524155</v>
+        <v>0.0007268488810463009</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1526743419383365</v>
+        <v>0.2612327269301744</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.373805439223304</v>
+        <v>0.6673609320118459</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.800044957569412</v>
+        <v>8.32999673032765</v>
       </c>
       <c r="C11">
-        <v>0.7247103127510854</v>
+        <v>2.451990771463159</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3031106958976508</v>
+        <v>0.3464227495278749</v>
       </c>
       <c r="F11">
-        <v>3.631320891495307</v>
+        <v>5.858032013796361</v>
       </c>
       <c r="G11">
-        <v>0.002450636257392835</v>
+        <v>0.000717774163840746</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1562359427672391</v>
+        <v>0.2825359247917589</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.363896867903406</v>
+        <v>0.6483269378479264</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.854120536436483</v>
+        <v>8.582280368082593</v>
       </c>
       <c r="C12">
-        <v>0.740936749683442</v>
+        <v>2.527518114826933</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3047595318800447</v>
+        <v>0.3554574834964868</v>
       </c>
       <c r="F12">
-        <v>3.65957897659888</v>
+        <v>6.023047142607709</v>
       </c>
       <c r="G12">
-        <v>0.002448991000044658</v>
+        <v>0.0007143246161330454</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1576028386695754</v>
+        <v>0.2908767370137753</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.360244246768701</v>
+        <v>0.6418617116868717</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.842464528390167</v>
+        <v>8.527706377557706</v>
       </c>
       <c r="C13">
-        <v>0.7374398656335757</v>
+        <v>2.51117655776028</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.30440357787122</v>
+        <v>0.3535068693261749</v>
       </c>
       <c r="F13">
-        <v>3.653477149970826</v>
+        <v>5.987306958614823</v>
       </c>
       <c r="G13">
-        <v>0.002449344025288718</v>
+        <v>0.0007150682765880164</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1573076376522522</v>
+        <v>0.2890673446190988</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.361026458914779</v>
+        <v>0.6432191396613547</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.804489351797997</v>
+        <v>8.350645594543153</v>
       </c>
       <c r="C14">
-        <v>0.7260442693781783</v>
+        <v>2.458170986091602</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3032459645833967</v>
+        <v>0.3471638976982589</v>
       </c>
       <c r="F14">
-        <v>3.633638524835476</v>
+        <v>5.871518465822987</v>
       </c>
       <c r="G14">
-        <v>0.002450500310216704</v>
+        <v>0.0007174906857109415</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1563480311959182</v>
+        <v>0.283216330877778</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.363594363135704</v>
+        <v>0.6477794641639321</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.781257239095851</v>
+        <v>8.242875740744978</v>
       </c>
       <c r="C15">
-        <v>0.7190706335633195</v>
+        <v>2.4259183867822</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3025393758466137</v>
+        <v>0.3432924356300049</v>
       </c>
       <c r="F15">
-        <v>3.621533386100424</v>
+        <v>5.801169513406251</v>
       </c>
       <c r="G15">
-        <v>0.002451212408538419</v>
+        <v>0.0007189724880985388</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1557626257841775</v>
+        <v>0.2796696629395541</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.365180275310415</v>
+        <v>0.6506730557947122</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.648559896939332</v>
+        <v>7.635025576715009</v>
       </c>
       <c r="C16">
-        <v>0.6792055637012595</v>
+        <v>2.244138681720869</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2985282883896048</v>
+        <v>0.3213042248349112</v>
       </c>
       <c r="F16">
-        <v>3.552873946910154</v>
+        <v>5.40624005340419</v>
       </c>
       <c r="G16">
-        <v>0.002455352161104753</v>
+        <v>0.0007274405944477692</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1524441076128653</v>
+        <v>0.2598759857857402</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.374466855176962</v>
+        <v>0.6687024287101337</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.567538907740015</v>
+        <v>7.270043907589582</v>
       </c>
       <c r="C17">
-        <v>0.6548354285528148</v>
+        <v>2.135093106089357</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2961016376699135</v>
+        <v>0.3079774135316171</v>
       </c>
       <c r="F17">
-        <v>3.511383123767814</v>
+        <v>5.170685179429512</v>
       </c>
       <c r="G17">
-        <v>0.002457944573806991</v>
+        <v>0.0007326216609283265</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.150440291205868</v>
+        <v>0.2481664687640972</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.380339955996789</v>
+        <v>0.6809641581451729</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.521077139257045</v>
+        <v>7.062740354213247</v>
       </c>
       <c r="C18">
-        <v>0.6408492440175451</v>
+        <v>2.07318950773589</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2947184098172997</v>
+        <v>0.3003665989066278</v>
       </c>
       <c r="F18">
-        <v>3.487748385489624</v>
+        <v>5.037446984128053</v>
       </c>
       <c r="G18">
-        <v>0.002459455129751117</v>
+        <v>0.0007355992131697635</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.149299378852362</v>
+        <v>0.2415758341209084</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.383782358831823</v>
+        <v>0.6884250833198564</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.505369734598844</v>
+        <v>6.992976526917289</v>
       </c>
       <c r="C19">
-        <v>0.6361190029011823</v>
+        <v>2.052362198486492</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2942522239522276</v>
+        <v>0.2977985905573206</v>
       </c>
       <c r="F19">
-        <v>3.479785361646549</v>
+        <v>4.992700944477292</v>
       </c>
       <c r="G19">
-        <v>0.002459969927957265</v>
+        <v>0.0007366071710064863</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1489150711666838</v>
+        <v>0.2393678446452299</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.384958915595163</v>
+        <v>0.6910184253103182</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.576149263203035</v>
+        <v>7.308619147746469</v>
       </c>
       <c r="C20">
-        <v>0.6574264611274998</v>
+        <v>2.146614735079595</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2963586636103415</v>
+        <v>0.3093903316981326</v>
       </c>
       <c r="F20">
-        <v>3.515776083890671</v>
+        <v>5.195523087854497</v>
       </c>
       <c r="G20">
-        <v>0.002457666593593692</v>
+        <v>0.0007320704383556771</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1506523944275955</v>
+        <v>0.249397707954742</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.379708086268657</v>
+        <v>0.6796159098658734</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.815637572992784</v>
+        <v>8.402507976108609</v>
       </c>
       <c r="C21">
-        <v>0.7293900747653197</v>
+        <v>2.473694617608885</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3035854663234048</v>
+        <v>0.349024073724685</v>
       </c>
       <c r="F21">
-        <v>3.639455890792817</v>
+        <v>5.905407058266633</v>
       </c>
       <c r="G21">
-        <v>0.00245015988138511</v>
+        <v>0.0007167795986032574</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1566293939156083</v>
+        <v>0.2849270528528933</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.36283739688399</v>
+        <v>0.6464188680972569</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.973439848752264</v>
+        <v>9.147295625541005</v>
       </c>
       <c r="C22">
-        <v>0.7767114245382345</v>
+        <v>2.696822166745619</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3084197638287165</v>
+        <v>0.37552982549186</v>
       </c>
       <c r="F22">
-        <v>3.722368654240626</v>
+        <v>6.394465119252573</v>
       </c>
       <c r="G22">
-        <v>0.002445425861599523</v>
+        <v>0.0007067042341003289</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.160641949352879</v>
+        <v>0.3097733093902519</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.352392155261782</v>
+        <v>0.6291178952098448</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.889098373414811</v>
+        <v>8.746700433379601</v>
       </c>
       <c r="C23">
-        <v>0.7514279998820257</v>
+        <v>2.576763642454182</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3058294506111991</v>
+        <v>0.3613216591330612</v>
       </c>
       <c r="F23">
-        <v>3.677924411094551</v>
+        <v>6.130870021677595</v>
       </c>
       <c r="G23">
-        <v>0.002447936818192274</v>
+        <v>0.0007120924172742439</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1584905208915615</v>
+        <v>0.2963449890379337</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.35791346419866</v>
+        <v>0.6379079958891936</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.572256153549688</v>
+        <v>7.291171470404606</v>
       </c>
       <c r="C24">
-        <v>0.6562549790463663</v>
+        <v>2.141403373148478</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.296242425157125</v>
+        <v>0.3087513939323898</v>
       </c>
       <c r="F24">
-        <v>3.513789345220715</v>
+        <v>5.184287114816527</v>
       </c>
       <c r="G24">
-        <v>0.00245779220568676</v>
+        <v>0.0007323196489451643</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1505564679903273</v>
+        <v>0.2488406280188542</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.379993549459364</v>
+        <v>0.6802241789983015</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.235793697374675</v>
+        <v>5.819151734845548</v>
       </c>
       <c r="C25">
-        <v>0.5547674565809757</v>
+        <v>1.702276359684902</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.286380001225794</v>
+        <v>0.2540816405795994</v>
       </c>
       <c r="F25">
-        <v>3.34550353496536</v>
+        <v>4.247302339519564</v>
       </c>
       <c r="G25">
-        <v>0.002469167981714375</v>
+        <v>0.0007540655443554922</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.142441374628369</v>
+        <v>0.2029993927198959</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.406266399016509</v>
+        <v>0.7412118828875691</v>
       </c>
       <c r="O25">
         <v>0</v>
